--- a/resources/celltypes.xlsx
+++ b/resources/celltypes.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6623EC-3B30-4558-93A6-BD059459C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFBAC6-EA6A-4474-9A14-5C589EB8685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mouse" sheetId="2" r:id="rId1"/>
-    <sheet name="human" sheetId="1" r:id="rId2"/>
+    <sheet name="human" sheetId="1" r:id="rId1"/>
+    <sheet name="mouse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1934,23 +1934,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F35C2E9-965A-44F1-BAED-9787D587766F}">
-  <dimension ref="A1:E188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1967,12 +1967,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
@@ -1980,31 +1980,31 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2026,18 +2026,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>377</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2048,40 +2048,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>378</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2092,62 +2092,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>383</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2158,62 +2158,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>390</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2224,29 +2224,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>391</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>392</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2257,29 +2257,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>394</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2290,117 +2290,117 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>395</v>
+        <v>65</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>397</v>
+        <v>69</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>398</v>
+        <v>71</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2433,117 +2433,117 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>405</v>
+        <v>91</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>406</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>408</v>
+        <v>97</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>409</v>
+        <v>99</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>413</v>
+        <v>107</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>414</v>
+        <v>109</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2554,18 +2554,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -2576,51 +2576,51 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>418</v>
+        <v>121</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>419</v>
+        <v>123</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -2653,29 +2653,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -2686,29 +2686,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>423</v>
+        <v>139</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -2719,18 +2719,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -2763,51 +2763,51 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>428</v>
+        <v>157</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -2818,40 +2818,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>429</v>
+        <v>161</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>431</v>
+        <v>165</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -2862,62 +2862,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>432</v>
+        <v>169</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>170</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>434</v>
+        <v>172</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>435</v>
+        <v>174</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -2928,18 +2928,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>179</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>437</v>
+        <v>180</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>181</v>
       </c>
@@ -2950,18 +2950,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>183</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -2972,73 +2972,73 @@
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>187</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>439</v>
+        <v>188</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>442</v>
+        <v>194</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>443</v>
+        <v>196</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -3049,29 +3049,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>445</v>
+        <v>202</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>446</v>
+        <v>204</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -3082,62 +3082,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>447</v>
+        <v>208</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>209</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>448</v>
+        <v>210</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>449</v>
+        <v>212</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>451</v>
+        <v>216</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -3148,29 +3148,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>219</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>452</v>
+        <v>220</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>221</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>453</v>
+        <v>222</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>225</v>
       </c>
@@ -3192,18 +3192,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>454</v>
+        <v>228</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>229</v>
       </c>
@@ -3214,29 +3214,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>455</v>
+        <v>232</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>233</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>456</v>
+        <v>234</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -3247,18 +3247,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>457</v>
+        <v>238</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>241</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -3302,18 +3302,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>247</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>458</v>
+        <v>248</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>249</v>
       </c>
@@ -3324,18 +3324,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>253</v>
       </c>
@@ -3346,18 +3346,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>255</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>460</v>
+        <v>256</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>257</v>
       </c>
@@ -3368,18 +3368,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>259</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
+        <v>260</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -3390,106 +3390,106 @@
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>263</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>462</v>
+        <v>264</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>265</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>463</v>
+        <v>266</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>464</v>
+        <v>268</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>465</v>
+        <v>270</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>271</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>467</v>
+        <v>274</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>468</v>
+        <v>276</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>469</v>
+        <v>278</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -3511,18 +3511,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>471</v>
+        <v>286</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>289</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>293</v>
       </c>
@@ -3566,18 +3566,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>297</v>
       </c>
@@ -3588,62 +3588,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>299</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>303</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>476</v>
+        <v>306</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>307</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>309</v>
       </c>
@@ -3654,18 +3654,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>311</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>478</v>
+        <v>312</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>313</v>
       </c>
@@ -3676,18 +3676,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>315</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>317</v>
       </c>
@@ -3698,29 +3698,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>319</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>321</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>323</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>325</v>
       </c>
@@ -3742,40 +3742,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>327</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>482</v>
+        <v>328</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>483</v>
+        <v>330</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>331</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>484</v>
+        <v>332</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>333</v>
       </c>
@@ -3786,84 +3786,84 @@
         <v>370</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>485</v>
+        <v>336</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>337</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>487</v>
+        <v>340</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>341</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>488</v>
+        <v>342</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>343</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>491</v>
+        <v>348</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>349</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>351</v>
       </c>
@@ -3885,29 +3885,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>353</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>492</v>
+        <v>354</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>355</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>357</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>359</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>361</v>
       </c>
@@ -3940,74 +3940,48 @@
         <v>370</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>507</v>
+        <v>363</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="D181" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="D183" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>372</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>501</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>503</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>510</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D187" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>509</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D188" t="s">
-        <v>508</v>
+        <v>369</v>
+      </c>
+      <c r="D184" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4017,23 +3991,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F35C2E9-965A-44F1-BAED-9787D587766F}">
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4050,12 +4024,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
@@ -4063,31 +4037,31 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4072,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4109,18 +4083,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4131,40 +4105,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4175,62 +4149,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>382</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>383</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4241,62 +4215,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>387</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>390</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -4307,29 +4281,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4340,29 +4314,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4373,117 +4347,117 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4494,7 +4468,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -4505,7 +4479,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -4516,117 +4490,117 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>405</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>406</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>408</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>409</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>410</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -4637,18 +4611,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -4659,51 +4633,51 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>416</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>418</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -4714,7 +4688,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -4725,7 +4699,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -4736,29 +4710,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -4769,29 +4743,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -4802,18 +4776,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -4824,7 +4798,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -4835,7 +4809,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -4846,51 +4820,51 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4901,40 +4875,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>431</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4945,62 +4919,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>170</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>435</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -5011,18 +4985,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>179</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>181</v>
       </c>
@@ -5033,18 +5007,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>183</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -5055,73 +5029,73 @@
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>187</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>439</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>442</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -5132,29 +5106,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>204</v>
+        <v>446</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -5165,62 +5139,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>208</v>
+        <v>447</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>209</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>210</v>
+        <v>448</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>451</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -5231,29 +5205,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>219</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>220</v>
+        <v>452</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>221</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -5264,7 +5238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>225</v>
       </c>
@@ -5275,18 +5249,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>229</v>
       </c>
@@ -5297,29 +5271,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>232</v>
+        <v>455</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>233</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>234</v>
+        <v>456</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -5330,18 +5304,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>238</v>
+        <v>457</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -5352,7 +5326,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>241</v>
       </c>
@@ -5363,7 +5337,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -5374,7 +5348,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -5385,18 +5359,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>247</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>248</v>
+        <v>458</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>249</v>
       </c>
@@ -5407,18 +5381,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>252</v>
+        <v>459</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>253</v>
       </c>
@@ -5429,18 +5403,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>255</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>257</v>
       </c>
@@ -5451,18 +5425,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>259</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -5473,106 +5447,106 @@
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>263</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>264</v>
+        <v>462</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>265</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>266</v>
+        <v>463</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>268</v>
+        <v>464</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>270</v>
+        <v>465</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>271</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>276</v>
+        <v>468</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>278</v>
+        <v>469</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -5583,7 +5557,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -5594,18 +5568,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>286</v>
+        <v>471</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -5616,7 +5590,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>289</v>
       </c>
@@ -5627,7 +5601,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -5638,7 +5612,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>293</v>
       </c>
@@ -5649,18 +5623,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>297</v>
       </c>
@@ -5671,62 +5645,62 @@
         <v>370</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>299</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>302</v>
+        <v>474</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>303</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>307</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>309</v>
       </c>
@@ -5737,18 +5711,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>311</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>313</v>
       </c>
@@ -5759,18 +5733,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>315</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>316</v>
+        <v>479</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>317</v>
       </c>
@@ -5781,29 +5755,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>319</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>321</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>323</v>
       </c>
@@ -5814,7 +5788,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>325</v>
       </c>
@@ -5825,40 +5799,40 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>327</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>328</v>
+        <v>482</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>331</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>332</v>
+        <v>484</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>333</v>
       </c>
@@ -5869,84 +5843,84 @@
         <v>370</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>336</v>
+        <v>485</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>337</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>341</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>342</v>
+        <v>488</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>343</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>344</v>
+        <v>489</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>346</v>
+        <v>490</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>349</v>
       </c>
@@ -5957,7 +5931,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>351</v>
       </c>
@@ -5968,29 +5942,29 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>353</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>354</v>
+        <v>492</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>355</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>356</v>
+        <v>493</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>357</v>
       </c>
@@ -6001,7 +5975,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>359</v>
       </c>
@@ -6012,7 +5986,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>361</v>
       </c>
@@ -6023,48 +5997,74 @@
         <v>370</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>507</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>495</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D182" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>367</v>
+        <v>497</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D183" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D184" t="s">
-        <v>373</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>501</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>503</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>510</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D187" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>509</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D188" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/resources/celltypes.xlsx
+++ b/resources/celltypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFBAC6-EA6A-4474-9A14-5C589EB8685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C10C6D8-89B8-401C-8236-F2D4145573D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="human" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="508">
   <si>
     <t>PositiveMarkers</t>
   </si>
@@ -382,12 +382,6 @@
     <t>PPY,SCGN,FXYD2,SCGB2A1,GPC5-AS1,CMTM8,ARX,ETV1,PPY2P,PXK,SERTM1,SLITRK6,SEMA3E,APOBEC2,ABCC9,NEUROD1,PAX6,ISL1,CARTPT,THSD7A,AQP3,ENTPD2,PTGFR,CHN2,EGR3,LMO3,MEIS1,ZNF503,FGB</t>
   </si>
   <si>
-    <t>Gamma delta T cells</t>
-  </si>
-  <si>
-    <t>GNLY,PTGDS,GZMB,S100B,FGFBP2,NKG7,PRF1,KLRF1,HOPX,CST7,KLRD1,CTSW,SPON2,IFITM1,GZMA,CD247,CLIC3,CD7,ADGRG1,CCL5,TRDC,STMN1,HMGB2,TYMS,MKI67,UBE2C,TUBA1B,ASPM,CENPA,TOP2A,PCNA,AURKB,BIRC5,NUSAP1,TROAP,TUBB,H2AFX,CENPF,CCNB1,H2AFZ,TRGV2,TRGV10,TRGV11,TRGV1,TRGV3,TRGV4,TRGV5,TRGV8,TRGV9,TRGJ1,TRGJ2,TRGJP1,TRGJP2,TRGJP,TRGC1,TRGC2,TRDD1,TRDD2,TRDD3,TRDJ1,TRDJ2,TRDJ3,TRDJ4,TRDV1,TRDV2,TRDV3</t>
-  </si>
-  <si>
     <t>Gastric chief cells</t>
   </si>
   <si>
@@ -1277,9 +1271,6 @@
   </si>
   <si>
     <t>PPY,SCGN,FXYD2,CMTM8,ARX,ETV1,PXK,SERTM1,SLITRK6,SEMA3E,APOBEC2,ABCC9,NEUROD1,PAX6,ISL1,CARTPT,THSD7A,AQP3,ENTPD2,PTGFR,CHN2,EGR3,LMO3,MEIS1,FGB</t>
-  </si>
-  <si>
-    <t>PTGDS,GZMB,S100B,NKG7,PRF1,HOPX,CST7,KLRD1,CTSW,SPON2,IFITM1,GZMA,CD247,CLIC3,CD7,ADGRG1,CCL5,TRDC,STMN1,HMGB2,TYMS,MKI67,UBE2C,TUBA1B,ASPM,CENPA,TOP2A,PCNA,AURKB,BIRC5,NUSAP1,TROAP,H2AFX,CENPF,CCNB1,H2AFZ,TRGV2,TRGJ1,TRGJ2,TRDD1,TRDD2,TRDJ1,TRDJ2,TRDV1,TRDV3</t>
   </si>
   <si>
     <t>ANPEP,BHLHA15,RAB3D,LEP,LGR5,KCNQ1,EGFR,PRKCZ,CHRM3</t>
@@ -1644,15 +1635,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1935,22 +1924,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1967,1980 +1956,1980 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>370</v>
+      <c r="D2" t="s">
+        <v>368</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>171</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>179</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>181</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>183</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>185</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>187</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>199</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>205</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>209</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>217</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>219</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>221</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>223</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>225</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>229</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>235</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>239</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>241</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>243</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>245</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>247</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>249</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>255</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>257</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>259</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>261</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>263</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>265</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>271</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>281</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>283</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>287</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>289</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>291</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>293</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>297</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>299</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>303</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>307</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>309</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>311</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>313</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>315</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D157" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>317</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>319</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>321</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>323</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>325</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>327</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D163" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D164" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>331</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D165" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>333</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D167" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>337</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D169" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>341</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>343</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D172" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>349</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D174" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>351</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D175" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>353</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>355</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>357</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>359</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>361</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D180" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D180" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>363</v>
       </c>
@@ -3948,10 +3937,10 @@
         <v>364</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>365</v>
       </c>
@@ -3959,29 +3948,18 @@
         <v>366</v>
       </c>
       <c r="D182" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D183" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>367</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D183" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>372</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D184" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3992,22 +3970,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F35C2E9-965A-44F1-BAED-9787D587766F}">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4024,2047 +4002,2036 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>374</v>
+      <c r="B2" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>370</v>
+      <c r="D2" t="s">
+        <v>368</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>375</v>
+      <c r="B3" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>376</v>
+      <c r="B4" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="D14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="D15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="D16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="D17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="D19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="D20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="D22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="D23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="D25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="D28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="D29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="D31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="D32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="D33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="D35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="D36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="D37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="D39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="D40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="D45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="D46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="D47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+      <c r="D48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="D49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="D50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+      <c r="D51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="D52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+      <c r="D55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="D57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+      <c r="D59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+      <c r="D63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="D64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="D66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="D67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="D69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+      <c r="D73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="D74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+      <c r="D75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+      <c r="D76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="D78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+      <c r="D79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="D80" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+      <c r="D82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+      <c r="D86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+      <c r="D88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>179</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>181</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+      <c r="D90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>183</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>185</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+      <c r="D92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>187</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="D93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+      <c r="D94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+      <c r="D95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+      <c r="D96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+      <c r="D97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="D98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>199</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="D99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="D100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>205</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="D102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+      <c r="D103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>209</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="D104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+      <c r="D105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="D106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="D107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>217</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="D108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>219</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="D109" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>221</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>223</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>225</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+      <c r="D112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="D113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>229</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="D114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+      <c r="D115" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>235</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="D117" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="D118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>239</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>241</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>243</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>245</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+      <c r="D122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>247</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="D123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>249</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+      <c r="D124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="D125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+      <c r="D126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>255</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="D127" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>257</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="D128" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>259</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="D129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>261</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="D130" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>263</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="D131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>265</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+      <c r="D132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="D133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+      <c r="D134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>271</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+      <c r="D136" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+      <c r="D137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+      <c r="D138" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="D139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>281</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>283</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+      <c r="D141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="D142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>287</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>289</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>291</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>293</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="D146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="D147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>297</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="D148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>299</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="D149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+      <c r="D150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>303</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+      <c r="D151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="D152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>307</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="D153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>309</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+      <c r="D154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>311</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="D155" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>313</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="D156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>315</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="D157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>317</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+      <c r="D158" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>319</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+      <c r="D159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>321</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+      <c r="D160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>323</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>325</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+      <c r="D162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>327</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="D163" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+      <c r="D164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>331</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="D165" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>333</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="D166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+      <c r="D167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>337</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="D168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="D169" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>341</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="D170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>343</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+      <c r="D171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="D173" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>349</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D174" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>351</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+      <c r="D175" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>353</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="D176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>355</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+      <c r="D177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>357</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>359</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>492</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>494</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>496</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>498</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>500</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>507</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>495</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>497</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>499</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>501</v>
-      </c>
-      <c r="B185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="D186" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>506</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>510</v>
-      </c>
-      <c r="B187" s="2" t="s">
+      <c r="D187" t="s">
         <v>505</v>
-      </c>
-      <c r="D187" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>509</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D188" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
